--- a/data/echoMRI/Kotz12112024.xlsx
+++ b/data/echoMRI/Kotz12112024.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KINGSTON/Kotz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA27DEF-B586-C547-9C24-AAB98CE04879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBBCF1E-3D21-964B-81A9-8EF1E3F12BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="22440" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExtractedScans">ExtractedScans!$A$1:$J$39</definedName>
+    <definedName name="ExtractedScans">ExtractedScans!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>RecNumber</t>
   </si>
@@ -53,48 +53,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>3706</t>
-  </si>
-  <si>
-    <t>11:58:37 Dec 5, 2024; 29; ems</t>
-  </si>
-  <si>
-    <t>3707</t>
-  </si>
-  <si>
-    <t>12:00:02 Dec 5, 2024; 34; ems</t>
-  </si>
-  <si>
-    <t>3708</t>
-  </si>
-  <si>
-    <t>12:01:18 Dec 5, 2024; 36; ems</t>
-  </si>
-  <si>
-    <t>3709</t>
-  </si>
-  <si>
-    <t>12:02:40 Dec 5, 2024; 34; ems</t>
-  </si>
-  <si>
-    <t>3710</t>
-  </si>
-  <si>
-    <t>12:04:04 Dec 5, 2024; 29; ems</t>
-  </si>
-  <si>
-    <t>3711</t>
-  </si>
-  <si>
-    <t>12:05:25 Dec 5, 2024; 34; ems</t>
-  </si>
-  <si>
-    <t>3712</t>
-  </si>
-  <si>
-    <t>12:06:55 Dec 5, 2024; 34; ems</t>
   </si>
   <si>
     <t>3715</t>
@@ -619,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -661,16 +619,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>8.7200000000000006</v>
+        <v>12.84</v>
       </c>
       <c r="D2">
-        <v>21.98</v>
+        <v>24.63</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -685,21 +643,21 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>30.43</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
-        <v>13.01</v>
+        <v>3.24</v>
       </c>
       <c r="D3">
-        <v>23.79</v>
+        <v>25.47</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -714,21 +672,21 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>36.94</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>15.61</v>
+        <v>2.19</v>
       </c>
       <c r="D4">
-        <v>23.34</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -743,21 +701,21 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>39</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>11.87</v>
+        <v>3.32</v>
       </c>
       <c r="D5">
-        <v>23.89</v>
+        <v>23.04</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -772,224 +730,224 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>35.39</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7861</v>
+      </c>
+      <c r="C6">
+        <v>7.01</v>
+      </c>
+      <c r="D6">
+        <v>24.16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>15.99</v>
-      </c>
-      <c r="D6">
-        <v>23.5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>39.43</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>11.28</v>
+      </c>
+      <c r="D7">
+        <v>25.14</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>14.14</v>
-      </c>
-      <c r="D7">
-        <v>22.46</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>36.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>7.94</v>
+      </c>
+      <c r="D8">
+        <v>26.23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>15.64</v>
-      </c>
-      <c r="D8">
-        <v>26.02</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>41.34</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>18.05</v>
+      </c>
+      <c r="D9">
+        <v>25.54</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="C9">
-        <v>12.84</v>
-      </c>
-      <c r="D9">
-        <v>24.63</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>36.9</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>13.66</v>
+      </c>
+      <c r="D10">
+        <v>23.97</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
-        <v>3.24</v>
-      </c>
-      <c r="D10">
-        <v>25.47</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>27.8</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="D11">
+        <v>23.18</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
-        <v>2.19</v>
-      </c>
-      <c r="D11">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>19.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>19.21</v>
+      </c>
+      <c r="D12">
+        <v>22.8</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="C12">
-        <v>3.32</v>
-      </c>
-      <c r="D12">
-        <v>23.04</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>25.7</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7861</v>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>7.01</v>
+        <v>13.2</v>
       </c>
       <c r="D13">
-        <v>24.16</v>
+        <v>22.35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1004,21 +962,21 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>30.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14">
-        <v>11.28</v>
+        <v>14.73</v>
       </c>
       <c r="D14">
-        <v>25.14</v>
+        <v>23.12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1033,21 +991,21 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>35.700000000000003</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15">
-        <v>7.94</v>
+        <v>2.98</v>
       </c>
       <c r="D15">
-        <v>26.23</v>
+        <v>16.96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1062,21 +1020,21 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>33.799999999999997</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16">
-        <v>18.05</v>
+        <v>2.78</v>
       </c>
       <c r="D16">
-        <v>25.54</v>
+        <v>18.68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1091,21 +1049,21 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>44.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17">
-        <v>13.66</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="D17">
-        <v>23.97</v>
+        <v>22.08</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1120,21 +1078,21 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>37.200000000000003</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18">
-        <v>16.489999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="D18">
-        <v>23.18</v>
+        <v>19.25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1149,21 +1107,21 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>39</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>19.21</v>
+        <v>3.02</v>
       </c>
       <c r="D19">
-        <v>22.8</v>
+        <v>20.68</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1178,21 +1136,21 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>41.5</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>13.2</v>
+        <v>8.01</v>
       </c>
       <c r="D20">
-        <v>22.35</v>
+        <v>25.36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1207,21 +1165,21 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>35</v>
+        <v>32.700000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21">
-        <v>14.73</v>
+        <v>8.24</v>
       </c>
       <c r="D21">
-        <v>23.12</v>
+        <v>24.29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1236,21 +1194,21 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>37.5</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22">
-        <v>2.98</v>
+        <v>1.73</v>
       </c>
       <c r="D22">
-        <v>16.96</v>
+        <v>19.72</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1265,21 +1223,21 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>19.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23">
-        <v>2.78</v>
+        <v>11.94</v>
       </c>
       <c r="D23">
-        <v>18.68</v>
+        <v>24.97</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1294,21 +1252,21 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>20.5</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24">
-        <v>2.2799999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="D24">
-        <v>22.08</v>
+        <v>19.47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1323,21 +1281,21 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>23.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
       <c r="C25">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="D25">
-        <v>19.25</v>
+        <v>19.37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1352,21 +1310,21 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>19.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26">
-        <v>3.02</v>
+        <v>7.95</v>
       </c>
       <c r="D26">
-        <v>20.68</v>
+        <v>25.96</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1381,21 +1339,21 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>22.9</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27">
-        <v>8.01</v>
+        <v>2.95</v>
       </c>
       <c r="D27">
-        <v>25.36</v>
+        <v>21.04</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1410,21 +1368,21 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>32.700000000000003</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28">
-        <v>8.24</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="D28">
-        <v>24.29</v>
+        <v>24.03</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1439,21 +1397,21 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>31.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="D29">
-        <v>19.72</v>
+        <v>20.83</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1468,21 +1426,21 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>20.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
       <c r="C30">
-        <v>11.94</v>
+        <v>1.18</v>
       </c>
       <c r="D30">
-        <v>24.97</v>
+        <v>19.48</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1497,21 +1455,21 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>36.1</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="D31">
-        <v>19.47</v>
+        <v>20.43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1526,21 +1484,21 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32">
-        <v>1.73</v>
+        <v>11.25</v>
       </c>
       <c r="D32">
-        <v>19.37</v>
+        <v>28.38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1555,209 +1513,6 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33">
-        <v>7.95</v>
-      </c>
-      <c r="D33">
-        <v>25.96</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34">
-        <v>2.95</v>
-      </c>
-      <c r="D34">
-        <v>21.04</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="D35">
-        <v>24.03</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36">
-        <v>2.5</v>
-      </c>
-      <c r="D36">
-        <v>20.83</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37">
-        <v>1.18</v>
-      </c>
-      <c r="D37">
-        <v>19.48</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38">
-        <v>2.57</v>
-      </c>
-      <c r="D38">
-        <v>20.43</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39">
-        <v>11.25</v>
-      </c>
-      <c r="D39">
-        <v>28.38</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
         <v>39.200000000000003</v>
       </c>
     </row>

--- a/data/echoMRI/Kotz12112024.xlsx
+++ b/data/echoMRI/Kotz12112024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBBCF1E-3D21-964B-81A9-8EF1E3F12BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7041E1-77FD-E44F-87EF-B6403A5A8F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -58,184 +58,184 @@
     <t>3715</t>
   </si>
   <si>
-    <t>08:51:23 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7869</t>
   </si>
   <si>
-    <t>08:52:49 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7883</t>
   </si>
   <si>
-    <t>08:54:09 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7868</t>
   </si>
   <si>
-    <t>08:55:27 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
-    <t>08:56:52 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7860</t>
   </si>
   <si>
-    <t>08:59:47 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7871</t>
   </si>
   <si>
-    <t>09:01:04 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>3714</t>
   </si>
   <si>
-    <t>09:02:28 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>3717</t>
   </si>
   <si>
-    <t>09:03:52 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>3718</t>
   </si>
   <si>
-    <t>09:05:14 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>3719</t>
   </si>
   <si>
-    <t>09:06:44 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>3716</t>
   </si>
   <si>
-    <t>09:08:33 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>3713</t>
   </si>
   <si>
-    <t>09:10:01 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7872</t>
   </si>
   <si>
-    <t>09:11:36 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7878</t>
   </si>
   <si>
-    <t>09:13:05 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7870</t>
   </si>
   <si>
-    <t>09:14:31 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7880</t>
   </si>
   <si>
-    <t>09:15:41 Dec 11, 2024; 45; ems</t>
-  </si>
-  <si>
     <t>7875</t>
   </si>
   <si>
-    <t>09:17:19 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7863</t>
   </si>
   <si>
-    <t>09:18:40 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7867</t>
   </si>
   <si>
-    <t>09:19:57 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7882</t>
   </si>
   <si>
-    <t>09:21:34 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7864</t>
   </si>
   <si>
-    <t>09:22:58 Dec 11, 2024; 29; ems</t>
-  </si>
-  <si>
     <t>7874</t>
   </si>
   <si>
-    <t>09:24:10 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7876</t>
   </si>
   <si>
-    <t>09:25:32 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7862</t>
   </si>
   <si>
-    <t>09:26:49 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7873</t>
   </si>
   <si>
-    <t>09:28:23 Dec 11, 2024; 40; ems</t>
-  </si>
-  <si>
     <t>7866</t>
   </si>
   <si>
-    <t>09:29:48 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7877</t>
   </si>
   <si>
-    <t>09:31:15 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7881</t>
   </si>
   <si>
-    <t>09:32:47 Dec 11, 2024; 34; ems</t>
-  </si>
-  <si>
     <t>7879</t>
   </si>
   <si>
-    <t>09:34:07 Dec 11, 2024; 45; ems</t>
-  </si>
-  <si>
     <t>7865</t>
   </si>
   <si>
-    <t>09:35:40 Dec 11, 2024; 29; ems</t>
+    <t>08:51:23 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>08:52:49 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>08:54:09 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>08:55:27 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>08:56:52 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>08:59:47 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:01:04 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:02:28 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:03:52 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:05:14 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:06:44 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:08:33 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:10:01 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:11:36 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:13:05 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:14:31 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:15:41 Dec 11, 2024, 45; ems</t>
+  </si>
+  <si>
+    <t>09:17:19 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:18:40 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:19:57 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:21:34 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:22:58 Dec 11, 2024, 29; ems</t>
+  </si>
+  <si>
+    <t>09:24:10 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:25:32 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:26:49 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:28:23 Dec 11, 2024, 40; ems</t>
+  </si>
+  <si>
+    <t>09:29:48 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:31:15 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:32:47 Dec 11, 2024, 34; ems</t>
+  </si>
+  <si>
+    <t>09:34:07 Dec 11, 2024, 45; ems</t>
+  </si>
+  <si>
+    <t>09:35:40 Dec 11, 2024, 29; ems</t>
   </si>
 </sst>
 </file>
@@ -580,10 +580,13 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="30.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -637,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -651,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>3.24</v>
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -680,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2.19</v>
@@ -695,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -709,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>3.32</v>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -767,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>11.28</v>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>7.94</v>
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -825,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>18.05</v>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>13.66</v>
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>16.489999999999998</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -912,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>19.21</v>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -941,7 +944,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>13.2</v>
@@ -956,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -970,7 +973,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>14.73</v>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -999,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2.98</v>
@@ -1014,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>2.78</v>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1057,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>2.2799999999999998</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1086,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1.48</v>
@@ -1101,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1115,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>3.02</v>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1144,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>8.01</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1173,7 +1176,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>8.24</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1202,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1.73</v>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1231,7 +1234,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>11.94</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1260,7 +1263,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>2.6</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1289,7 +1292,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>1.73</v>
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1318,7 +1321,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>7.95</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1347,7 +1350,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>2.95</v>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1376,7 +1379,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>4.8899999999999997</v>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1405,7 +1408,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>2.5</v>
@@ -1420,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1434,7 +1437,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>1.18</v>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>2.57</v>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1492,7 +1495,7 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>11.25</v>

--- a/data/echoMRI/Kotz12112024.xlsx
+++ b/data/echoMRI/Kotz12112024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7041E1-77FD-E44F-87EF-B6403A5A8F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F29EFE6-440D-AC46-9E2E-DF71CD373903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,97 +145,97 @@
     <t>7865</t>
   </si>
   <si>
-    <t>08:51:23 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:52:49 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:54:09 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>08:55:27 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:56:52 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>08:59:47 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:01:04 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:02:28 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:03:52 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:05:14 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:06:44 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:08:33 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:10:01 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:11:36 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:13:05 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:14:31 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:15:41 Dec 11, 2024, 45; ems</t>
-  </si>
-  <si>
-    <t>09:17:19 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:18:40 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:19:57 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:21:34 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:22:58 Dec 11, 2024, 29; ems</t>
-  </si>
-  <si>
-    <t>09:24:10 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:25:32 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:26:49 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:28:23 Dec 11, 2024, 40; ems</t>
-  </si>
-  <si>
-    <t>09:29:48 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:31:15 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:32:47 Dec 11, 2024, 34; ems</t>
-  </si>
-  <si>
-    <t>09:34:07 Dec 11, 2024, 45; ems</t>
-  </si>
-  <si>
-    <t>09:35:40 Dec 11, 2024, 29; ems</t>
+    <t>08:51:23 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:52:49 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:54:09 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>08:55:27 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:56:52 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>08:59:47 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:01:04 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:02:28 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:03:52 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:05:14 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:06:44 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:08:33 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:10:01 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:11:36 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:13:05 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:14:31 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:15:41 Dec 11, 2024; 45; ems</t>
+  </si>
+  <si>
+    <t>09:17:19 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:18:40 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:19:57 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:21:34 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:22:58 Dec 11, 2024; 29; ems</t>
+  </si>
+  <si>
+    <t>09:24:10 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:25:32 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:26:49 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:28:23 Dec 11, 2024; 40; ems</t>
+  </si>
+  <si>
+    <t>09:29:48 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:31:15 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:32:47 Dec 11, 2024; 34; ems</t>
+  </si>
+  <si>
+    <t>09:34:07 Dec 11, 2024; 45; ems</t>
+  </si>
+  <si>
+    <t>09:35:40 Dec 11, 2024; 29; ems</t>
   </si>
 </sst>
 </file>
@@ -580,12 +580,12 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="30.796875" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
